--- a/02_database_table/01_table schema.xlsx
+++ b/02_database_table/01_table schema.xlsx
@@ -5,18 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shiun\Desktop\project\WebProject\02_database_table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shiun\Desktop\WebProject\WebProject\02_database_table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6F9EB0A-11D9-4D68-A50C-761543956FA9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82DFC91A-65D4-495F-B977-5ADB02A0A79C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="product" sheetId="1" r:id="rId1"/>
     <sheet name="supplier" sheetId="2" r:id="rId2"/>
     <sheet name="order" sheetId="3" r:id="rId3"/>
     <sheet name="order_detail" sheetId="4" r:id="rId4"/>
+    <sheet name="reservation" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="79">
   <si>
     <t>prod_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -219,6 +220,130 @@
   </si>
   <si>
     <t>Table name: order_detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prod_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prod_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prod_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品編號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品售價</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品數量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>double</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>預約日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>預約時間</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res_opt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>預約方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>預估金額</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pet_kind</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寵物種類</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pet_age</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寵物年紀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pet_gender</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寵物性別</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pet_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寵物名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pet_note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>預約備註</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Table name: reservation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>預約編號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -564,21 +689,21 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="12.75" customWidth="1"/>
-    <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -592,7 +717,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -606,7 +731,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -618,7 +743,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -630,7 +755,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -642,7 +767,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -671,19 +796,19 @@
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.875" customWidth="1"/>
-    <col min="2" max="2" width="11.875" customWidth="1"/>
-    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -697,7 +822,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -711,7 +836,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -723,7 +848,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -735,7 +860,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -747,7 +872,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -759,7 +884,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -783,21 +908,21 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D7"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.375" customWidth="1"/>
-    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -811,7 +936,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>34</v>
       </c>
@@ -825,7 +950,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>35</v>
       </c>
@@ -837,7 +962,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>37</v>
       </c>
@@ -849,7 +974,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>36</v>
       </c>
@@ -873,22 +998,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFC0A7DF-4C83-4887-9E92-912A21139F6C}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.125" customWidth="1"/>
-    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -902,7 +1027,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>34</v>
       </c>
@@ -916,42 +1041,203 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>35</v>
+        <v>48</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F671C93-1538-4778-B9EE-8E3495252E87}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="1" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/02_database_table/01_table schema.xlsx
+++ b/02_database_table/01_table schema.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shiun\Desktop\WebProject\WebProject\02_database_table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82DFC91A-65D4-495F-B977-5ADB02A0A79C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB61CD1-228F-4B7D-B36E-BCAFB7F4F259}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="product" sheetId="1" r:id="rId1"/>
     <sheet name="supplier" sheetId="2" r:id="rId2"/>
     <sheet name="order" sheetId="3" r:id="rId3"/>
     <sheet name="order_detail" sheetId="4" r:id="rId4"/>
-    <sheet name="reservation" sheetId="5" r:id="rId5"/>
+    <sheet name="pet" sheetId="6" r:id="rId5"/>
+    <sheet name="reservation" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="91">
   <si>
     <t>prod_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -344,6 +345,54 @@
   </si>
   <si>
     <t>time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pet_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pet_birth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Table name: pet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寵物編號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寵物生日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寵物名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>health_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>病歷編號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cust_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客戶編號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1087,11 +1136,144 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF7591BB-1AE2-4F0A-A293-AF94816E5631}">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C15" s="1"/>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F671C93-1538-4778-B9EE-8E3495252E87}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1134,71 +1316,73 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" s="1"/>
+        <v>87</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="C5" s="1" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>29</v>
@@ -1206,11 +1390,11 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>29</v>
@@ -1218,25 +1402,37 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>30</v>
       </c>
     </row>

--- a/02_database_table/01_table schema.xlsx
+++ b/02_database_table/01_table schema.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shiun\Desktop\WebProject\WebProject\02_database_table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB61CD1-228F-4B7D-B36E-BCAFB7F4F259}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A1C68F-93A3-4E95-B3D4-C20A2DAA4E2B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="product" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="order_detail" sheetId="4" r:id="rId4"/>
     <sheet name="pet" sheetId="6" r:id="rId5"/>
     <sheet name="reservation" sheetId="5" r:id="rId6"/>
+    <sheet name="member" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="104">
   <si>
     <t>prod_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -176,10 +177,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cust_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>order_price</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -380,10 +377,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cust_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -393,6 +386,66 @@
   </si>
   <si>
     <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客戶編號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mbr_email</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>電子郵件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mbr_pwd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>密碼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mbr_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mbr_birthday</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mbr_address</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mbr_phone</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>手機</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mbr_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Table name: member</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -400,7 +453,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -412,6 +465,13 @@
       <sz val="9"/>
       <name val="新細明體"/>
       <family val="3"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
@@ -451,10 +511,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -957,7 +1023,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -990,13 +1056,13 @@
         <v>34</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1005,36 +1071,36 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1059,7 +1125,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1084,7 +1150,7 @@
         <v>27</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>29</v>
@@ -1092,40 +1158,40 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1140,7 +1206,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1150,7 +1216,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1169,13 +1235,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>29</v>
@@ -1183,11 +1249,11 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>29</v>
@@ -1195,23 +1261,23 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>29</v>
@@ -1219,11 +1285,11 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>30</v>
@@ -1231,25 +1297,25 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>36</v>
+      <c r="A10" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>29</v>
@@ -1272,8 +1338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F671C93-1538-4778-B9EE-8E3495252E87}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1283,7 +1349,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1302,63 +1368,63 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>30</v>
@@ -1366,11 +1432,11 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>31</v>
@@ -1378,11 +1444,11 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>29</v>
@@ -1390,11 +1456,11 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>29</v>
@@ -1402,11 +1468,11 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>29</v>
@@ -1414,11 +1480,11 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>30</v>
@@ -1426,13 +1492,138 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3BFD775-D216-4A36-881E-58EB710BEAEF}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>30</v>
       </c>
     </row>
